--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.447107679261398</v>
+        <v>0.4593233333333334</v>
       </c>
       <c r="H2">
-        <v>0.447107679261398</v>
+        <v>1.37797</v>
       </c>
       <c r="I2">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="J2">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="N2">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="O2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="P2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="Q2">
-        <v>48.29291034830306</v>
+        <v>50.92078117061222</v>
       </c>
       <c r="R2">
-        <v>48.29291034830306</v>
+        <v>458.28703053551</v>
       </c>
       <c r="S2">
-        <v>0.004756529508637929</v>
+        <v>0.003899774026971436</v>
       </c>
       <c r="T2">
-        <v>0.004756529508637929</v>
+        <v>0.003899774026971437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.447107679261398</v>
+        <v>0.4593233333333334</v>
       </c>
       <c r="H3">
-        <v>0.447107679261398</v>
+        <v>1.37797</v>
       </c>
       <c r="I3">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="J3">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="N3">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="O3">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="P3">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="Q3">
-        <v>81.92181581426584</v>
+        <v>84.90215263398001</v>
       </c>
       <c r="R3">
-        <v>81.92181581426584</v>
+        <v>764.1193737058201</v>
       </c>
       <c r="S3">
-        <v>0.00806875235953654</v>
+        <v>0.006502241365202114</v>
       </c>
       <c r="T3">
-        <v>0.00806875235953654</v>
+        <v>0.006502241365202115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.447107679261398</v>
+        <v>0.4593233333333334</v>
       </c>
       <c r="H4">
-        <v>0.447107679261398</v>
+        <v>1.37797</v>
       </c>
       <c r="I4">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="J4">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="N4">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="O4">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="P4">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="Q4">
-        <v>35.87616315158296</v>
+        <v>43.74216791132223</v>
       </c>
       <c r="R4">
-        <v>35.87616315158296</v>
+        <v>393.6795112019</v>
       </c>
       <c r="S4">
-        <v>0.0035335627415383</v>
+        <v>0.003349999084508288</v>
       </c>
       <c r="T4">
-        <v>0.0035335627415383</v>
+        <v>0.003349999084508289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.447107679261398</v>
+        <v>0.4593233333333334</v>
       </c>
       <c r="H5">
-        <v>0.447107679261398</v>
+        <v>1.37797</v>
       </c>
       <c r="I5">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="J5">
-        <v>0.01850074964373459</v>
+        <v>0.015538272766109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="N5">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="O5">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="P5">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="Q5">
-        <v>21.74670158037458</v>
+        <v>23.32383026325</v>
       </c>
       <c r="R5">
-        <v>21.74670158037458</v>
+        <v>209.91447236925</v>
       </c>
       <c r="S5">
-        <v>0.002141905034021821</v>
+        <v>0.001786258289427164</v>
       </c>
       <c r="T5">
-        <v>0.002141905034021821</v>
+        <v>0.001786258289427164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.6391457148429</v>
+        <v>11.94315233333334</v>
       </c>
       <c r="H6">
-        <v>11.6391457148429</v>
+        <v>35.829457</v>
       </c>
       <c r="I6">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="J6">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="N6">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="O6">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="P6">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="Q6">
-        <v>1257.165212340545</v>
+        <v>1324.022975361481</v>
       </c>
       <c r="R6">
-        <v>1257.165212340545</v>
+        <v>11916.20677825333</v>
       </c>
       <c r="S6">
-        <v>0.1238223869011653</v>
+        <v>0.1014004556043237</v>
       </c>
       <c r="T6">
-        <v>0.1238223869011653</v>
+        <v>0.1014004556043237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.6391457148429</v>
+        <v>11.94315233333334</v>
       </c>
       <c r="H7">
-        <v>11.6391457148429</v>
+        <v>35.829457</v>
       </c>
       <c r="I7">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="J7">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="N7">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="O7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="P7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="Q7">
-        <v>2132.595783328752</v>
+        <v>2207.593798853839</v>
       </c>
       <c r="R7">
-        <v>2132.595783328752</v>
+        <v>19868.34418968454</v>
       </c>
       <c r="S7">
-        <v>0.2100464581703651</v>
+        <v>0.1690688312504122</v>
       </c>
       <c r="T7">
-        <v>0.2100464581703651</v>
+        <v>0.1690688312504122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6391457148429</v>
+        <v>11.94315233333334</v>
       </c>
       <c r="H8">
-        <v>11.6391457148429</v>
+        <v>35.829457</v>
       </c>
       <c r="I8">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="J8">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="N8">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="O8">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="P8">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="Q8">
-        <v>933.9313771137977</v>
+        <v>1137.367376840932</v>
       </c>
       <c r="R8">
-        <v>933.9313771137977</v>
+        <v>10236.30639156839</v>
       </c>
       <c r="S8">
-        <v>0.09198601041531</v>
+        <v>0.08710541459424304</v>
       </c>
       <c r="T8">
-        <v>0.09198601041531</v>
+        <v>0.08710541459424305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6391457148429</v>
+        <v>11.94315233333334</v>
       </c>
       <c r="H9">
-        <v>11.6391457148429</v>
+        <v>35.829457</v>
       </c>
       <c r="I9">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="J9">
-        <v>0.4816131122886889</v>
+        <v>0.4040203167903319</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="N9">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="O9">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="P9">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="Q9">
-        <v>566.1120133953316</v>
+        <v>606.4574508098251</v>
       </c>
       <c r="R9">
-        <v>566.1120133953316</v>
+        <v>5458.117057288426</v>
       </c>
       <c r="S9">
-        <v>0.05575825680184843</v>
+        <v>0.04644561534135295</v>
       </c>
       <c r="T9">
-        <v>0.05575825680184843</v>
+        <v>0.04644561534135296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.36021652488969</v>
+        <v>12.844759</v>
       </c>
       <c r="H10">
-        <v>8.36021652488969</v>
+        <v>38.534277</v>
       </c>
       <c r="I10">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="J10">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="N10">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="O10">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="P10">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="Q10">
-        <v>903.0021309315437</v>
+        <v>1423.975476015266</v>
       </c>
       <c r="R10">
-        <v>903.0021309315437</v>
+        <v>12815.77928413739</v>
       </c>
       <c r="S10">
-        <v>0.08893968599450425</v>
+        <v>0.1090553296463078</v>
       </c>
       <c r="T10">
-        <v>0.08893968599450425</v>
+        <v>0.1090553296463078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.36021652488969</v>
+        <v>12.844759</v>
       </c>
       <c r="H11">
-        <v>8.36021652488969</v>
+        <v>38.534277</v>
       </c>
       <c r="I11">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="J11">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="N11">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="O11">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="P11">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="Q11">
-        <v>1531.810232941633</v>
+        <v>2374.248399815718</v>
       </c>
       <c r="R11">
-        <v>1531.810232941633</v>
+        <v>21368.23559834146</v>
       </c>
       <c r="S11">
-        <v>0.1508730892810323</v>
+        <v>0.1818320935053422</v>
       </c>
       <c r="T11">
-        <v>0.1508730892810323</v>
+        <v>0.1818320935053422</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.36021652488969</v>
+        <v>12.844759</v>
       </c>
       <c r="H12">
-        <v>8.36021652488969</v>
+        <v>38.534277</v>
       </c>
       <c r="I12">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="J12">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="N12">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="O12">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="P12">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="Q12">
-        <v>670.8283170733672</v>
+        <v>1223.228963529977</v>
       </c>
       <c r="R12">
-        <v>670.8283170733672</v>
+        <v>11009.06067176979</v>
       </c>
       <c r="S12">
-        <v>0.06607211415456789</v>
+        <v>0.09368113432962168</v>
       </c>
       <c r="T12">
-        <v>0.06607211415456789</v>
+        <v>0.09368113432962169</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.36021652488969</v>
+        <v>12.844759</v>
       </c>
       <c r="H13">
-        <v>8.36021652488969</v>
+        <v>38.534277</v>
       </c>
       <c r="I13">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="J13">
-        <v>0.3459351741618605</v>
+        <v>0.4345204227020912</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="N13">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="O13">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="P13">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="Q13">
-        <v>406.6294146735069</v>
+        <v>652.2398427143251</v>
       </c>
       <c r="R13">
-        <v>406.6294146735069</v>
+        <v>5870.158584428926</v>
       </c>
       <c r="S13">
-        <v>0.04005028473175603</v>
+        <v>0.0499518652208194</v>
       </c>
       <c r="T13">
-        <v>0.04005028473175603</v>
+        <v>0.0499518652208194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.72053346580205</v>
+        <v>4.313537</v>
       </c>
       <c r="H14">
-        <v>3.72053346580205</v>
+        <v>12.940611</v>
       </c>
       <c r="I14">
-        <v>0.1539509639057159</v>
+        <v>0.1459209877414679</v>
       </c>
       <c r="J14">
-        <v>0.1539509639057159</v>
+        <v>0.145920987741468</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="N14">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="O14">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="P14">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="Q14">
-        <v>401.861559185598</v>
+        <v>478.2005565759903</v>
       </c>
       <c r="R14">
-        <v>401.861559185598</v>
+        <v>4303.805009183913</v>
       </c>
       <c r="S14">
-        <v>0.03958068277242916</v>
+        <v>0.03662304598136452</v>
       </c>
       <c r="T14">
-        <v>0.03958068277242916</v>
+        <v>0.03662304598136452</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.72053346580205</v>
+        <v>4.313537</v>
       </c>
       <c r="H15">
-        <v>3.72053346580205</v>
+        <v>12.940611</v>
       </c>
       <c r="I15">
-        <v>0.1539509639057159</v>
+        <v>0.1459209877414679</v>
       </c>
       <c r="J15">
-        <v>0.1539509639057159</v>
+        <v>0.145920987741468</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="N15">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="O15">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="P15">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="Q15">
-        <v>681.6989988178059</v>
+        <v>797.3219520736741</v>
       </c>
       <c r="R15">
-        <v>681.6989988178059</v>
+        <v>7175.897568663066</v>
       </c>
       <c r="S15">
-        <v>0.0671428037883777</v>
+        <v>0.06106299566404892</v>
       </c>
       <c r="T15">
-        <v>0.0671428037883777</v>
+        <v>0.06106299566404894</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.72053346580205</v>
+        <v>4.313537</v>
       </c>
       <c r="H16">
-        <v>3.72053346580205</v>
+        <v>12.940611</v>
       </c>
       <c r="I16">
-        <v>0.1539509639057159</v>
+        <v>0.1459209877414679</v>
       </c>
       <c r="J16">
-        <v>0.1539509639057159</v>
+        <v>0.145920987741468</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="N16">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="O16">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="P16">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="Q16">
-        <v>298.5376271115254</v>
+        <v>410.7857059566634</v>
       </c>
       <c r="R16">
-        <v>298.5376271115254</v>
+        <v>3697.07135360997</v>
       </c>
       <c r="S16">
-        <v>0.02940396473422759</v>
+        <v>0.03146007170183522</v>
       </c>
       <c r="T16">
-        <v>0.02940396473422759</v>
+        <v>0.03146007170183523</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.72053346580205</v>
+        <v>4.313537</v>
       </c>
       <c r="H17">
-        <v>3.72053346580205</v>
+        <v>12.940611</v>
       </c>
       <c r="I17">
-        <v>0.1539509639057159</v>
+        <v>0.1459209877414679</v>
       </c>
       <c r="J17">
-        <v>0.1539509639057159</v>
+        <v>0.145920987741468</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="N17">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="O17">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="P17">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="Q17">
-        <v>180.9616223417423</v>
+        <v>219.035693423475</v>
       </c>
       <c r="R17">
-        <v>180.9616223417423</v>
+        <v>1971.321240811275</v>
       </c>
       <c r="S17">
-        <v>0.01782351261068149</v>
+        <v>0.01677487439421928</v>
       </c>
       <c r="T17">
-        <v>0.01782351261068149</v>
+        <v>0.01677487439421928</v>
       </c>
     </row>
   </sheetData>
